--- a/excel/base2.xlsx
+++ b/excel/base2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="13392" windowHeight="12588"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -668,16 +668,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.44140625" customWidth="1"/>
+    <col min="1" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,7 +731,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -758,7 +758,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -812,7 +812,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -839,7 +839,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -893,7 +893,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -947,7 +947,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2197,9 +2197,11 @@
       <c r="E57" s="3"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H57" s="8">
+        <v>23.558897243107801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2223,7 +2225,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -2247,7 +2249,7 @@
       </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -2271,7 +2273,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -2295,7 +2297,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -2319,7 +2321,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>15</v>
       </c>
@@ -2343,7 +2345,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -2367,7 +2369,7 @@
       </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -2391,7 +2393,7 @@
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
@@ -2415,7 +2417,7 @@
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>19</v>
       </c>
@@ -2439,7 +2441,7 @@
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
@@ -2463,7 +2465,7 @@
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -2487,7 +2489,7 @@
       </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>22</v>
       </c>
@@ -2511,7 +2513,7 @@
       </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
@@ -2535,7 +2537,7 @@
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -2559,7 +2561,7 @@
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
@@ -2583,7 +2585,7 @@
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
@@ -2607,7 +2609,7 @@
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
@@ -2631,7 +2633,7 @@
       </c>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>28</v>
       </c>
@@ -2655,7 +2657,7 @@
       </c>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
@@ -2679,7 +2681,7 @@
       </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>30</v>
       </c>
@@ -2703,7 +2705,7 @@
       </c>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -2727,7 +2729,7 @@
       </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
@@ -2751,7 +2753,7 @@
       </c>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>33</v>
       </c>
@@ -2775,7 +2777,7 @@
       </c>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>34</v>
       </c>
@@ -2799,7 +2801,7 @@
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>35</v>
       </c>
@@ -2823,7 +2825,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>36</v>
       </c>
@@ -2847,7 +2849,7 @@
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -2871,7 +2873,7 @@
       </c>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>38</v>
       </c>
@@ -2895,7 +2897,7 @@
       </c>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>39</v>
       </c>
@@ -2919,7 +2921,7 @@
       </c>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -2943,7 +2945,7 @@
       </c>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
@@ -2967,7 +2969,7 @@
       </c>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>42</v>
       </c>
@@ -2991,7 +2993,7 @@
       </c>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>43</v>
       </c>
@@ -3015,7 +3017,7 @@
       </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>44</v>
       </c>
@@ -3039,7 +3041,7 @@
       </c>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>45</v>
       </c>
@@ -3063,7 +3065,7 @@
       </c>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>46</v>
       </c>
@@ -3087,7 +3089,7 @@
       </c>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>47</v>
       </c>
@@ -3111,7 +3113,7 @@
       </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>48</v>
       </c>
@@ -3135,7 +3137,7 @@
       </c>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
@@ -3159,7 +3161,7 @@
       </c>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>50</v>
       </c>
@@ -3183,7 +3185,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,7 +3209,7 @@
       </c>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>52</v>
       </c>
@@ -3231,7 +3233,7 @@
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>53</v>
       </c>
@@ -3255,7 +3257,7 @@
       </c>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>54</v>
       </c>
@@ -3279,7 +3281,7 @@
       </c>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>55</v>
       </c>
@@ -3303,7 +3305,7 @@
       </c>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,7 +3329,7 @@
       </c>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>57</v>
       </c>
@@ -3351,7 +3353,7 @@
       </c>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>58</v>
       </c>
@@ -3375,7 +3377,7 @@
       </c>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,7 +3401,7 @@
       </c>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>60</v>
       </c>
@@ -3423,7 +3425,7 @@
       </c>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>61</v>
       </c>
@@ -3447,7 +3449,7 @@
       </c>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>62</v>
       </c>
@@ -3471,7 +3473,7 @@
       </c>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>63</v>
       </c>
@@ -3495,7 +3497,7 @@
       </c>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>64</v>
       </c>
@@ -3515,7 +3517,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>65</v>
       </c>
@@ -3534,7 +3536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3546,7 +3548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
